--- a/gurobi/data-sources/DataSources(Links).xlsx
+++ b/gurobi/data-sources/DataSources(Links).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AE6FB0-BCC8-4651-9DB8-1143045F0319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD61468-9150-4256-B4D5-244593BB6F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19F7A7F0-8CAE-4DD8-9486-113FE0336E1A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>https://domotec.ch/wp-content/uploads/2022/06/1.1-pl-allgemein-06.2022-DE.pdf</t>
   </si>
@@ -82,9 +82,6 @@
     <t>https://www.globalpetrolprices.com/Germany/natural_gas_prices/</t>
   </si>
   <si>
-    <t>https://www.eon.de/de/gk/strom/oekostrom.html#:~:text=Im%20Jahr%201990%20lag%20der,der%20CO%202%2DEmissionen%20leisten.</t>
-  </si>
-  <si>
     <t>Energy prices &amp; CO2 emissions</t>
   </si>
   <si>
@@ -119,13 +116,31 @@
   </si>
   <si>
     <t>https://www.waermepumpe.de/presse/zahlen-daten/</t>
+  </si>
+  <si>
+    <t>https://publications.pik-potsdam.de/rest/items/item_26186_3/component/file_26548/content</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/content/pdf/10.1007/s10273-022-3175-7.pdf</t>
+  </si>
+  <si>
+    <t>https://www.finanztip.de/stromvergleich/strompreis/#:~:text=Strom%20hat%20in%20Deutschland%20einen,und%20Wasserwirtschaft%20(BDEW)%20hervor.</t>
+  </si>
+  <si>
+    <t>https://www.nibe.eu/de-de/support/artikel/klimaschutz#:~:text=Der%20CO2%2DAussto%C3%9F%20betr%C3%A4gt%20dabei%203%2C8%20t%20CO2%2F,erneuerbar%20erzeugtem%20Strom%20betrieben%20wird.</t>
+  </si>
+  <si>
+    <t>Überblick Förderungen</t>
+  </si>
+  <si>
+    <t>https://www.viessmann.de/de/wissen/gesetze-und-verordnungen/foerderung/waermepumpe.html#:~:text=H%C3%B6he%20der%20F%C3%B6rders%C3%A4tze%20bei%20W%C3%A4rmepumpen,ein%20F%C3%B6rdersatz%20von%2045%20Prozent.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +152,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,13 +190,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -491,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7989854E-F0FF-45F1-9251-7107EE9FCC52}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,84 +584,109 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
+    <row r="13" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>24</v>
+      <c r="A24" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>25</v>
+      <c r="A25" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>21</v>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -649,12 +699,13 @@
     <hyperlink ref="A7" r:id="rId6" xr:uid="{18E4AAB8-9145-42F2-A355-57ACEE4EAB71}"/>
     <hyperlink ref="A5" r:id="rId7" xr:uid="{767059CA-FA12-49B3-A34B-8DAC19609D64}"/>
     <hyperlink ref="A12" r:id="rId8" xr:uid="{1CE069BA-D676-4FE2-88B2-ADC9BF7D594C}"/>
-    <hyperlink ref="A17" r:id="rId9" location=":~:text=Im%20Jahr%201990%20lag%20der,der%20CO%202%2DEmissionen%20leisten." xr:uid="{3DC61089-9372-4A88-B22A-39E6A002C3AE}"/>
-    <hyperlink ref="A16" r:id="rId10" xr:uid="{F8596786-90A3-40F0-9553-ACC4F760269B}"/>
-    <hyperlink ref="A20" r:id="rId11" location="klimakosten-von-treibhausgas-emissionen" xr:uid="{A80880BA-6ADC-4877-8816-25298A5AB35A}"/>
-    <hyperlink ref="A23" r:id="rId12" xr:uid="{0ABF0B31-B4F9-444A-A33B-9FA6299B7CEF}"/>
+    <hyperlink ref="A18" r:id="rId9" xr:uid="{F8596786-90A3-40F0-9553-ACC4F760269B}"/>
+    <hyperlink ref="A22" r:id="rId10" location="klimakosten-von-treibhausgas-emissionen" xr:uid="{A80880BA-6ADC-4877-8816-25298A5AB35A}"/>
+    <hyperlink ref="A28" r:id="rId11" xr:uid="{0ABF0B31-B4F9-444A-A33B-9FA6299B7CEF}"/>
+    <hyperlink ref="A20" r:id="rId12" xr:uid="{E3244440-8A36-42B6-9593-C130D723EE4D}"/>
+    <hyperlink ref="A21" r:id="rId13" xr:uid="{8B66F2E2-90EA-4BE0-B7E7-D29754ADEF66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>
--- a/gurobi/data-sources/DataSources(Links).xlsx
+++ b/gurobi/data-sources/DataSources(Links).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD61468-9150-4256-B4D5-244593BB6F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D689AB-E797-4216-B3F4-EA621CE32B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19F7A7F0-8CAE-4DD8-9486-113FE0336E1A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>https://domotec.ch/wp-content/uploads/2022/06/1.1-pl-allgemein-06.2022-DE.pdf</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>https://www.viessmann.de/de/wissen/gesetze-und-verordnungen/foerderung/waermepumpe.html#:~:text=H%C3%B6he%20der%20F%C3%B6rders%C3%A4tze%20bei%20W%C3%A4rmepumpen,ein%20F%C3%B6rdersatz%20von%2045%20Prozent.</t>
+  </si>
+  <si>
+    <t>https://www.umweltbundesamt.de/sites/default/files/medien/1410/publikationen/2020-12-21_methodenkonvention_3_1_kostensaetze.pdf</t>
+  </si>
+  <si>
+    <t>https://www.waermepumpe.de/uploads/tx_bcpageflip/BWP_Branchenstudie2021_Update.pdf</t>
   </si>
 </sst>
 </file>
@@ -516,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7989854E-F0FF-45F1-9251-7107EE9FCC52}">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,46 +652,56 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>20</v>
       </c>
     </row>
@@ -701,7 +717,7 @@
     <hyperlink ref="A12" r:id="rId8" xr:uid="{1CE069BA-D676-4FE2-88B2-ADC9BF7D594C}"/>
     <hyperlink ref="A18" r:id="rId9" xr:uid="{F8596786-90A3-40F0-9553-ACC4F760269B}"/>
     <hyperlink ref="A22" r:id="rId10" location="klimakosten-von-treibhausgas-emissionen" xr:uid="{A80880BA-6ADC-4877-8816-25298A5AB35A}"/>
-    <hyperlink ref="A28" r:id="rId11" xr:uid="{0ABF0B31-B4F9-444A-A33B-9FA6299B7CEF}"/>
+    <hyperlink ref="A29" r:id="rId11" xr:uid="{0ABF0B31-B4F9-444A-A33B-9FA6299B7CEF}"/>
     <hyperlink ref="A20" r:id="rId12" xr:uid="{E3244440-8A36-42B6-9593-C130D723EE4D}"/>
     <hyperlink ref="A21" r:id="rId13" xr:uid="{8B66F2E2-90EA-4BE0-B7E7-D29754ADEF66}"/>
   </hyperlinks>
